--- a/public/lessons_import_template.xlsx
+++ b/public/lessons_import_template.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raph\projects\gifted-v3\smarti-web\smarti-web\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B39DFB-841D-4828-875B-651BA73B879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3A86A-8E53-4BC5-8C77-5B0AA8C55969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23610" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
   <si>
     <t>questionIds</t>
   </si>
@@ -37,27 +50,172 @@
     <t>premium</t>
   </si>
   <si>
-    <t>11111111-1111-1111-1111-111111111111;22222222-2222-2222-2222-222222222222</t>
-  </si>
-  <si>
-    <t>MATH_BASICS</t>
+    <t>5902d840-b545-4798-9cc3-61a7b6f49e1f;2b1d2583-4f13-4d97-b552-a6e22e93e98c;f03b6792-7605-4fbd-8e77-dce884fc91eb;5707cff2-7fee-4861-a26c-96fab96e1e84;dde868b9-a8a5-4983-b2cc-f02809ae106e;db8f0e0c-a072-40b4-bb53-47228d0ee273;f3b3ef6e-b236-4281-8715-5a226cd982c0;5be09fed-862b-4c86-ab09-ae6347e2ae11;2362669f-0d74-466f-880e-5351db5bd88a;852d0f52-17a7-4776-a1b9-cf7d9e197c7e;87896aaf-6dd9-410d-ba85-198462601a36;0722055e-423d-45d6-9b15-a1ab02f2d510</t>
+  </si>
+  <si>
+    <t>946c83d6-21da-4407-8043-9fb360164b7c;408c0726-7cb8-4480-a199-bcb0aabfa8d1;0746c188-802f-49c7-afd1-ab3487d64589;e2f26dda-dde6-4624-8de9-5276adfb7907;4b529284-2893-4d1d-b422-438c3f45e2a3;cf17e2d9-3bee-461f-86a6-237d155b5d0a;b1b0684e-c3f9-4756-b2b0-9c75385d68a1;6b0d7d64-ac03-43ee-bc8d-36d32e67e170;420de55e-35e9-4b25-b4e4-00a299b4fb28;c93ff32d-2ec3-4a17-83fc-86bc2350173b;f895f8b2-5316-4cec-b464-8354d55be531;7d4c38d5-640e-4992-a52d-1fbd4928b24d</t>
+  </si>
+  <si>
+    <t>71ea0f7a-4bc0-4d51-ad43-186d86d36dd4;06a1d3d5-0643-4cf8-8366-aad576ec7bab;4494813f-9f13-4e2a-a965-cc408cd1305a;61f3247b-6f01-4293-8367-9c1f6972748f;220a4a4c-2c20-43eb-a7dd-c6ecfb3d6d69;cab2a949-cfc9-4d38-a295-75460ef5c1a3;27be3a21-cfe9-4430-91eb-e79b3def4ea9;fd535013-a10e-4e66-b5c2-6e8a76badce3;80ca41e3-f4aa-48a4-9da9-96018a644576;ee24df61-8f99-476c-b496-f8cbe9cffb70;afc0b453-f780-4db8-8d51-c8c79cae9842;44860a0d-5091-4e4a-9cb3-87ac0abbd9e0</t>
+  </si>
+  <si>
+    <t>99021bf0-6487-4d37-ad3f-8698cf3f1bc4;eb2d3515-2b94-46c9-834a-90ae7c6a62d6;b195fc78-b583-4529-a8c8-8f4810d1097e;ff344540-c1d1-4178-a70e-6333f1893dcc;76524fae-68d4-436b-bc47-680a451a21ea;6c17b026-aded-4e4b-ac00-05a514c3fe3f;2f696324-8c12-408f-9733-2a6e01c2ea73;b893c7e8-8242-418e-8998-59742b26cd1d;605bfff8-2c6b-459b-9153-e7f19f3620be;2c0ad849-851f-46c1-9fe7-dac1445b534f;daa13a99-c129-4885-95df-4aeefc3e795e;629e5ebb-595e-4872-9e80-8ed5f71fb269;90a22a8b-3bbf-4cab-8d0c-a05e282efb7e</t>
+  </si>
+  <si>
+    <t>8bcbd1e2-f11a-4a86-b057-a843dcee548a;fbffe801-dc40-4728-990e-2e9430899b80;04e26a74-0a40-414f-9198-df4898ee7527;1e872f08-1900-41af-a771-cf9e04a4ac9c;246b18b7-24f0-4b9c-925f-acd1b8e68fdb;ccbc9676-8525-4676-9743-3241a6074017;a7da17c7-70c6-4021-8588-bf48d7750b9b;553f25b6-50c2-474e-a2de-5772d89a545c;8550facc-c653-4b74-9651-96dd5ffb4e40;6b8caa05-3b32-41b9-8705-bd405a0229a0;6d03e8e2-40ce-4749-927f-14cb92f87099;c521e41f-cbb9-4599-8e07-a6361438e809;baffa66a-c77b-4489-b9d2-b5afe0d7d223</t>
+  </si>
+  <si>
+    <t>c398971b-fe7b-4fe0-9a67-585b4e347f5a;d1bca922-9d85-4eb8-b534-91add7143404;98fb7ca4-6f74-4965-ab46-df719dbc001a;18b89954-c9f1-43cd-a468-2daddf913283;cf792362-2b64-4da4-96b5-c13026e6c585;a4f04c86-c3c2-4f0d-93d5-447df8c86793;63b35b4c-0186-4dfa-a584-20c7ad55d0db;55589efa-2145-460e-9d7d-f87480ffabd1;a10ea0dc-c11f-4048-9feb-87bfe73ad939;b4b0e7fe-5f6f-4e97-be1b-720149a18aab;a1e7136d-5a45-494d-a55b-395e4ddd3f52;0457c71e-0ff3-436f-9958-e3d35c3166e3;2d517866-e09a-4b56-ae64-f49f9947ad86</t>
+  </si>
+  <si>
+    <t>c1304277-46d2-464a-a7d1-a3ed782dbe0b;86aedeec-39db-409a-8ba5-d11aae3d75e7;2a9b3a09-1d29-4941-abb5-2337c8817706;e019a907-5e4e-4eaa-a02e-d4a67ec3131c;026262b5-b108-480f-9592-59a3b7640772;8b910817-9a2a-4753-93b7-e6ad962e655c;7d2fa635-03a2-4f33-bf91-fe62d3fa706f;3da6d02b-1eb2-4dc5-8257-551283748cd7;ab98ac43-b08c-48a2-9196-a24f8b920f45;f1ec0f91-469f-4f6b-b0ae-18d4c2a03d4f;73d974d1-3a5b-4c97-b1e8-79861ff1af5e;3aac89de-f8f3-4757-a00e-9b0d846b7603;233fabb5-516c-4ad4-993a-c222a103375f</t>
+  </si>
+  <si>
+    <t>085578b0-0254-4e2d-bdd7-58d5cde989a9;b7dc3b55-40ce-4525-b84c-db6d162729f2;39136058-81db-4153-b4d5-df84105428dd;2afb2ebf-8562-4f30-af49-b3d472bbb322;3b8dae4c-83f6-4495-89cb-88026fd27045;e1939eae-073f-4d62-a61c-a0764799a9cf;1b31c18d-1896-47ca-b1dc-ff3c8a38594e;fb4cdc9a-5dc4-46e9-8ec0-6d29edbb4924;3b378b8e-b74c-492f-a1c8-b9d75c79f353;7e1e4100-af08-4b2b-985e-1c20c7376981;9893ae36-5d7d-4d99-85de-15ded0610600;f17dc64c-392d-4b7e-8bcb-d5114bb5baf1</t>
+  </si>
+  <si>
+    <t>372748cb-2530-4eae-aca4-d125f842301d;f8690334-0873-4ad6-9af4-9f1646a39c1e;93bd3aa6-0404-40d9-9109-9233123dc56e;823f2aab-c2c4-4c42-8240-e94f7503de03;93f5fd70-107f-486f-82bd-446c38cd0d0a;4e27770e-f066-44d6-b00f-e3674c29b1b7;f0737319-bc70-415b-91fa-0af9a91b31da;3f845af4-6cd4-46f8-8684-22603d25c284;7f064e9b-4fdd-4d61-a9f7-db845bf8249c;ce338d77-265e-40ac-909b-d843578a3dd8;b773c1c0-6e61-4808-bdb4-834fe0f59796;1961b5a4-3e1e-4aeb-9561-2ef78b3cfe20;5d2cb618-eade-4d6a-9cd0-2a19cf8e6e0a</t>
+  </si>
+  <si>
+    <t>418575ba-9351-42de-b478-c3482fd17f40;6a8207e9-cfa2-43ef-9c8a-afaf4b5c686a;d8e3b137-62d9-4fcd-a635-221bd20c2216;5c7faacf-3e95-4f8a-8600-d349d7a45f78;c4633723-92e3-4ddf-92fc-d1a75bf2b76b;fef715c2-03a5-47ec-aed6-48c913f945ad;aff60eba-fec7-410b-9be1-1c9d370d152e;79557ef1-d74f-4ba8-a120-662976b2bb1a;8a362c78-1c19-4697-a745-3bda9ab21677;e5d3c71d-1b2c-45cd-949b-9facb4f91780;0987ac01-c615-417c-8cfb-098a8783e580;2cf7cf7a-6b1e-47ae-8ddb-bb47696334b0</t>
+  </si>
+  <si>
+    <t>da7972a5-409f-4d61-8c6e-1abdef41dbac;ec517d98-be9d-47de-9d72-4b8cb649cf9b;1bee10d6-194e-4d34-9968-85824059838d;d259f254-09f6-4e94-8b91-2a3a3d75ebf1;877a902d-10b9-4af9-93eb-6df1df0435ec;c639a68f-31d7-43b4-b7df-1eb9fbf8ab6b;fab17da7-4c49-452f-85c9-5719c46f5fe1;101f0c99-7a0b-4fba-a72e-50f2c1104317;0ad64b08-b367-4c9b-a102-9d942dea144e;2a09eb07-c1da-4071-996b-4ec623a0c2f6;00cebd94-c2ad-41e8-9664-ce32eebd4393;62934578-196e-49b0-938f-6764dc04d11f;9d1088ec-c3ba-4d55-8dfd-20e8d5c6dcae</t>
+  </si>
+  <si>
+    <t>e4612c0e-3538-4813-81e2-9cc5ae658430;bd677646-d49a-4ff8-823c-43d6a6d6d7f1;cd58fd73-fa8a-47e2-98f5-cfee6cb2ae8d;9646e27d-1252-45ec-88db-74780898fd0f;50174af7-83b2-4627-8870-2ce4453ef674;2ebdc5a9-cb99-4101-9cb8-0040d176986b;79d4f5be-cbf0-4fbf-96dc-1d8c60b54760;070b7d77-7742-451b-be38-a71167fd4385;e0c49e7a-d5cb-4714-8972-e9f6c1e2b263;93d15fbb-0cf5-446a-81f6-158c3f567c49;4c5bc393-a7a1-4ad1-bc0c-78b3a438d97b;13860b8e-c01b-44ad-acd1-e18c6092f00a</t>
+  </si>
+  <si>
+    <t>d0d27a44-f444-44d0-bb02-1e7eb0572a8d;9149fff0-8d42-4d2b-88d3-6bc8d40a41a9;6841078a-f049-47ff-8d1e-ff867cd92caf;ecfe8cc6-8d9f-49c4-b8ed-eded2bba6594;e99de177-3fdc-4172-9222-a03e727c78ce;22da319e-e5bc-4083-958f-bd7f91772255;6cfe9837-341b-4d6e-a820-06b6dd25b511;bee62ec5-75da-484f-afae-e92a198f0f16;d561b06f-6b17-4059-8d4d-03ffe2f3707b;f15a7669-9ef1-48dd-bb4d-506f46da81d8;00d85d86-e6a6-4a05-bf63-aea977f558db;aa8d2c77-8db6-48e8-8560-24116158990b</t>
+  </si>
+  <si>
+    <t>15142b2c-365d-4d5e-a10d-314e82ab67ee;fcc5d6cf-e9d5-4e73-98ee-2b0206d19c4d;fd158ae7-4bb4-4629-8f1c-bf0977ee836a;9636cde3-f355-4abc-8d06-8e0d5dd7c756;56d8e77a-e2ac-47db-8c02-308d144c0894;b454a0c3-e393-4133-bc3a-83c09da2a5b2;35e9cfe1-37b9-4937-a909-bd9bc35127ad;081fbc00-cd48-4d7f-99fb-8fc2e1900aec;6c2b17c8-8c78-48d6-8638-5738fa02eebf;02349cab-901e-49d3-8cde-fad917eb30f1;716fa76f-bee4-47f5-bb56-88ff0ec8f5aa;a0e72416-b2b7-4030-a603-5cb4ee10eb51;11f53436-ac1f-4ddc-a4ba-d67b90c9d037</t>
+  </si>
+  <si>
+    <t>f680a29b-9df5-410c-8b9c-903180498a49;021d24de-336c-410b-9d5a-37ac43bba71e;0126045a-a25a-48c6-873e-61c53e78e10c;dddf520b-5540-4666-9b2b-411a17992399;1f5dc570-2502-4054-8394-b4381e9bb9c2;ded4d0a7-a1d6-45fd-b5bb-3e24a344c6ba;bfdd6c92-5122-4587-9308-12c2c207b5d4;ba270f68-9e86-46c7-bb60-0c36d71de05d;47ac5443-58e7-4979-a264-ee02660cc439;8ad862fc-23d1-4465-be95-24aa8056b29f;59fa3c76-7c0b-483a-9360-abb33cf5ad68;3ed3429b-e3fa-4955-bb44-e134ad8078c9</t>
+  </si>
+  <si>
+    <t>e0df3222-f63b-4ed2-801e-4e394e24c03f;93a5d403-74ca-4a6a-bdf3-7cec46beb685;f20b3f17-e993-4f9f-ac5a-74fc9f736fc1;86013e5b-6b9a-4dba-8e0e-1b9a3cd6a1f3;cb64c0a3-d21f-4a30-b1d7-13da5c1b93d9;fa98c4da-1727-4cd6-99b7-cf7161f6a382;72e21694-8564-4098-a85a-b39e6aaa77b8;88f40d65-4f9c-4a45-ad01-265fc8af0081;78fa51b5-8e8d-4d1d-9a7a-6e413d56d8f9;7e5e5fed-d934-48da-b799-c167c7f1f4d9;aeb89426-098a-4eda-94ae-d7ce026f2419;d25dc8ca-6585-4886-9f5b-988fc2fb976f</t>
+  </si>
+  <si>
+    <t>02e0b890-c52e-47f7-947a-c5c9497547b1;a3547155-0c4b-4d2e-a8c4-f61bcc6dd9f5;8edf4447-29e7-445c-8458-792decb78489;6ed244b9-0153-4e0c-aead-7afcc4b2aa23;1ce47729-0a5f-410f-bc78-7bf07fe95a28;2e1b8f61-32ba-4815-ae47-23c808344464;4c7f52cd-049e-4dae-9e3f-c886572ac499;63d38ed9-68d5-4117-a912-77286b2bf144;69d5ca08-dba1-4186-af7f-49f74c400767;b8365039-139f-462a-a11f-497e93f952ba;9b7806ee-0b5c-4699-99bb-be4fc4c948bd;ec6389b9-daa1-416c-9cbe-2cc6a61d122b;1a70ddc1-5929-4518-8805-ef9fa4e707f6</t>
+  </si>
+  <si>
+    <t>8443c012-3ec6-45e7-be64-e1a91d083f25;19114901-3466-492a-b39e-945a6b17b657;0b42d8d8-1d93-42c8-bc95-4cca797111fc;3ecaa989-6f4d-427e-9ef1-21a5446f3325;6db6581c-abfe-444f-9137-cc624cdf415c;aa68c632-27a1-4e43-91ce-d7b0c1891127;642eea6c-ab5a-4b68-ae6a-d66f695fa643;17163dcd-0602-45a6-87ed-4204a0b0a027;c875a60d-ec0a-4bc3-9500-28e0e80627de;9ed0e392-bbcd-4dc7-9909-511a76438b77;2c19262a-fc6d-4ca9-bdb7-349e3112604b;cc690c9d-eeb3-489b-bef9-1be1f10e936a;584eff73-440c-4932-b968-f6400fa3ec13</t>
+  </si>
+  <si>
+    <t>048bceb9-2b79-4331-90d8-24e84f5724fe;a5078914-547a-478f-990f-7c93e2160492;d4560edb-e68e-42b9-be91-5db35fe8aac7;ba41b342-0fbf-4ce2-bb3b-179cf1dd3258;8fb956fc-2d15-4efc-bbff-d64ef3101a60;542702cd-85f9-429a-af8d-670561fb4c8f;1c5be94e-4e86-44b0-8d17-c3aefee4746f;9d26c62d-6533-43d4-b1d6-fefd60189d24;29fb07bb-ed4f-403e-a90f-9bab9842f827;9662574c-a75d-4eda-b34c-3e4822df051e;e06ca691-9aee-43e5-bb1d-52f0bcf78f44;25a52afe-2cd4-46c2-a054-fb6b003cd648</t>
+  </si>
+  <si>
+    <t>11a478c2-4ab8-42f2-a1f9-3c984799ee4a;c0350702-be94-41e2-8221-1231b4b3f4d9;b8e38ecd-395c-4899-8450-12f0032c8f8e;35a91d18-a2b1-470b-a5c0-8bf9e1889bab;9b1aaf53-b220-4d28-a573-05eca8534e98;6e213084-fe7c-4122-9761-6b268f92c7ff;49e75a0c-19a1-4016-9bae-fe0ac30d7517;5b38e6c9-aa46-4ccc-bb97-3cf032c0c667;d7a91ee5-bcfd-4d1d-86fa-18533be4cd92;8b940c6d-ac87-4de0-947a-eb251584713e;2a9e3abf-11af-4a37-9170-3aa5961303a6;088308d8-609d-411b-9e95-dd2fc2ecffca</t>
+  </si>
+  <si>
+    <t>89e75aee-5c4f-464f-b5c5-36686c645cce;f619f213-240f-456a-a91f-1eff249a3800;98c935fd-6815-4849-aebc-2a47f62d2807;1622ebdb-90f3-4100-80e7-18f033f85231;df79dc9b-caf7-4eb4-ae8c-1fb732560d16;63275b63-cb18-417b-8af8-8e2e8a157e86;5c47bfd3-2dd7-49d1-a456-67fcb6662ce1;b1d8e155-a59b-4333-a743-945ac44e49fc;278b6f99-0c12-4de9-bd80-62a1253d7186;ec8a6e43-9727-4559-9f1d-4989e62cfc86;cb9e95ba-b986-4b01-85a8-ba705a4efe2f;a112b369-5ef5-46c7-9e81-7138c456f6d6;1fd0453c-822d-447a-9aa9-2c50e5748c1f;62bc8084-a06c-4c53-b018-fea561d2594d;9247b6f2-a609-4f91-a4ed-635a26aeee8c;57063766-ca95-4a13-b944-c7d9d25f45af;c2effb5f-6f5d-4f50-b975-9c9d69ef421e;7bd797ce-c853-4e8f-8dda-ed13ea12dd9d;57a785cf-789f-47bc-8951-a6972a83c49a</t>
+  </si>
+  <si>
+    <t>7d9e997f-2c1c-4359-8ed6-32b34b58efc7;50d46fe7-596f-4e83-97c2-e1019dafe8f4;da6df5c0-4e0b-426a-9345-207a3db66472;68584dcf-feb6-4912-af08-91c80a347945;098adabf-0e4c-40f6-b6d5-09cf5d367da8;9012d87c-f2bb-4675-b4cf-45d63dfff221;b6efdfb5-dff1-4386-97f4-83b41d120bec;e23a89b6-395a-493d-902b-2d97d57b8d62;43781f4e-cc5c-4b64-834d-5b1ac291c96e;0fa74a4c-28cd-46db-8ec9-83e44ff5692c;8fc24d04-bfd2-48dc-8888-bd3fe3c5606d;440898c1-f8cb-4598-b39c-62d0a9b6753e;d1fbd982-2567-4c86-9ef2-ac5a244648fc;fca50135-d8da-43b5-a300-d9021bfb59dc;901545cd-30b1-49b1-8a60-d25ae47ca6ba;f9be51e5-f44c-4340-a037-6f4521ab4c6c;c11b6a53-7e5d-461d-8bc8-821bace9f05c;451d4680-8cdd-4a5d-b24c-a284a01c0ee8;f2b9e01c-09bf-4924-8353-94e633118eb6</t>
+  </si>
+  <si>
+    <t>e5b7ed5f-c78f-4810-b6ee-5f81d3670ea0;6783d124-c5e3-4d7d-a2a5-49ef73d66106;1c54d7a3-c0ca-495e-b011-73ef259e97e6;2b7e967c-cf01-4ffd-a318-9a4291444e25;a56ddb39-19e2-41f7-bfb8-073a77a0b017;6827a529-dac8-4458-a74f-5dc678e2dbbc;51326cbe-ad21-4ded-91d1-57c72086203d;401b5873-21e0-4d30-bf31-252ebcbcdf27;6565d6e9-6599-4741-ac5c-9cefd87e929d;c7108f21-05fe-4849-8ca4-5cfbb8f74830;8649bdd7-37ef-4f1c-8e0a-e4e17a6e4a61;2ca0250f-967e-4e15-bc55-2dbe59e90637;de503df2-c283-4c82-8004-60bdeaebab4d;2d16b316-3184-4d2b-a4a7-6528ca1f22e2;26794c2b-4fb7-47d7-a849-8ebacdcb39ec;f23ebdb6-ef78-4677-a8fa-079bf7fd2c9d;8503f9f5-13b6-4244-9e54-581312d5b8a9;1eec559a-cd57-466a-9d29-36750bde1985;60a070ba-72c5-438c-9480-dc80ec66c1b8;bac2d113-fe89-4689-a97f-670a83c1935b;06d0d1ef-e58b-4f3d-a771-a35a613f1002;e06d6eda-5d82-4fc0-be4a-c270296acdcc;39998f36-07c5-4530-b92d-b8e0eddf0dc8</t>
+  </si>
+  <si>
+    <t>79395bd9-0aa7-4c55-9e05-1f0672a6bfcb;d8b40434-9646-4506-86a2-823974fc8d5e;ffeea3b2-cd87-4d1f-b6c9-f42858deb050;c4c7b59f-a725-458a-a3e1-3e315d064c5c;72acddb7-f36a-44db-9e0f-f2e764a2d76b;7fdab53f-7a67-41be-a5bb-a6c16b37dd67;839982c1-7375-48a3-8a98-d1bbc768e322;1cdcf355-5e03-47f3-b3d1-5a8ad50b80ab;d7f45e80-8691-498b-baa2-01022d7ac9df;a74e435b-eb52-4441-8aec-d7e569b899d0;76ec6d58-9620-4a37-8afd-1cf2ccbe1d49;aa173c35-9cec-4c7e-95ea-d4b064a3d306;938438a7-e6cc-4b57-91e0-a8764977ae0d;049ddd74-70c8-4373-9200-9e475837cf10;7d4292f5-2b9b-498e-b1cf-7bacf61e4ebe;4b004093-0b7b-4b19-a2fd-11457ba05744;9b7aa93f-d327-421b-aee2-5edd5dec86f0;f4c22059-92ef-4143-a8b4-11b3c5cfa135;f9b58784-adb0-4a9c-ad6f-55f8ecb3285c;fecc0a5b-461f-4cb0-ae61-9b894c69887c;0ef30922-5884-4bec-84e9-5b0448c069ff;3f756657-f616-4ccc-b1c0-d719b407db3d;f51ad86a-eef1-4872-9a3e-a36203d2bc2d;1c897b32-3030-4dfd-9294-cca769ec4010</t>
+  </si>
+  <si>
+    <t>ac45db5c-537a-43bc-88d9-21ce969429d3;530a6a47-4158-4fb7-95ae-e02371c09855;b47a5abc-b0a3-4563-bd1e-1e02c705a7c3;54a8bb44-b670-4f93-ab10-85d82c6f3a29;40f282cb-7543-4131-a83b-ad03b073682d;5411ddd5-73bb-4d65-a8fc-a735b77f313b;8adf8168-2bcb-4ecd-ab87-de7a5ee08648;6f7a8efd-8653-4ac8-bdf4-1abbdd765e5f;823912ea-14a1-4ed2-9061-821cdbaba97b;079dfb42-7090-4c13-a93d-f16f812a0a2f;2cd715ac-4a3e-4750-b3e5-020bf0a1a3f1;f2963654-7936-4cbc-af08-7a183f62ff65;9197e3cf-221c-445a-bd53-d248de551947;c972af74-d21e-415d-b060-7c9f96deafa3;625f950b-2c6c-4c0c-8e1a-8628c991b413;29c7604c-fa05-4949-a1f2-cf49bff343cf;eb48350d-f7cd-4378-9fab-b0af0f37384b;d47fd518-8d4f-45b9-b189-818afb6887a7;579d7768-fba5-4860-9b89-f8f98cc5a7e7;c020f1c7-cf84-4f2b-aa1c-3a56a343f7c5;ceb22c77-fb02-45e5-84ae-51ed603e8e0a;205298aa-42e1-487a-9f6c-0201dfc11448;4edeecc8-9734-40f0-8fe9-961586468fa9</t>
+  </si>
+  <si>
+    <t>0a83551b-ed68-485e-9f90-49ba7cecc435;da590b29-06bc-404b-a94a-eb1cdaa9715d;7a26d691-0592-4144-a89d-276ab8d42889;5a0bdf16-1234-4d1f-ac74-77a1bbf47e30;45be63ca-a458-4c2c-919e-bc0f170c75c8;5e71b2db-b3db-49c3-b85f-b8fe509ad106;9fc95c69-a214-49a2-aaca-377b874fef7a;cab2865d-fa25-4c24-b4a6-3e684313e700;16cbd56e-f95a-4a7b-8af6-301f0d0786b5;8d6e2376-a846-42a9-a2e9-f16a973f4f67;521a660e-888a-4b51-80e2-e28deac8e14d;09fcc533-56be-430c-9848-2b636c7714d8;611cafc7-fa88-46a0-90b2-6a8391ae3619;9090b43f-f435-4171-bce9-a8aa0e0f5ce8;09c284fc-4afe-4ba4-abcc-f156bad0a9ec;16272a43-34da-48cd-89ed-7d7ca03b05ab;e8efe0f3-8554-4ce2-905a-75427fc604ec;a2cd01f6-26c9-4c1f-902e-e02f5950c1d4;8510ea96-e214-496b-902e-ad286776d4c8;4570c8a7-1e97-413c-9695-e80d970f5873;0a3bc839-153f-4c22-a983-c9f686d23e71;a53d85aa-265e-4ea2-9569-f98b77523014</t>
+  </si>
+  <si>
+    <t>ea82e99f-6a7e-4279-a4ad-004478eac52f;bd33a2f3-6429-402e-ae34-07c304218d66;d7e87d0d-8a9a-4213-9433-15cee0396f17;f4ae96d6-4340-47ea-8f3a-57f2a9ddbe95;0552359b-d40b-4f80-8d94-5f36d7ae350b;6302d1f0-2d78-4604-85cf-2b476c95eb80;00dec633-54df-4fc9-abfd-007119b4799f;1d9c312c-0bda-4275-890b-d887c1620380;bf8ccdb3-a046-4d24-9aed-7b67a3cad957;84b3c313-89f8-4870-97b2-179bdd12b7fd;a9271f09-b37f-4c17-8c21-39cdf965a361;ba0d61bf-83c7-4e9d-8a17-14794e6693aa;93c18d82-6f44-4e99-a9d4-547f72879447;55639a0f-9aa4-4d96-ad77-1bc07fe0a59d;bc505947-0459-4e3b-87ee-fbca43d2bb50;84b655ee-a993-42c6-9972-744b74f73859;f3651c53-61e5-4a3a-9aae-5292e4a0db12;aebd43d0-f8a5-4e52-b74a-2737fb41f04d;cf488aec-d7b6-431e-9d7b-2717b6b3cbdf;a7b45023-cecf-4d36-8a31-d8842b625698;c3cf353c-1911-4334-a745-75d0aa68c1c3;f86ea80d-aba6-41eb-b5b2-3f736e70315d;a4f63f69-d206-45a6-8897-3e90a19f12bc</t>
+  </si>
+  <si>
+    <t>26ca18f4-f72d-4714-b130-f0b59d58c288;f4d86a7e-8a48-466b-b1a6-cc9910dd64e2;d422c177-f733-4217-9e7f-e99e91d6089f;fae57a02-2165-4273-9355-2ab309388681;2a6045c4-8e89-4426-9287-b15fef14c587;8cb4f07d-13bb-4e11-9289-ada82027b260;211c8b67-a0de-4242-a6b4-3f2e313abbf4;1d118d18-dff7-4ead-991c-5b8d1ae98d2a;c76b0ed5-af5e-4764-9ddd-1d5387e83eb8;a8e1db8c-9469-4e62-8b92-d006423cf7da;dcf36aec-f595-47e9-a8bf-bfaafd69b144;4d7eb526-5364-4d23-b6d5-f030ffe467be;834714f4-50e4-4afb-a264-1b7f9ae84d76;077424d2-e0d2-4971-8d68-71bac6cb4dea;8fd8b2c9-b3f6-41f0-8702-ef3ec52983ea;364328dd-ba15-4aa5-8acf-4b1a47f52a02;e936f68a-585b-4b18-ac10-c5deb1e903ce;fda62966-45f4-4120-a98c-2c95b61eb364;cff7d758-cf32-4ed1-bacd-c25bf85bc0bd;25ff8bbf-e2cb-4d79-86b0-dfd6b742cfb7;78a94e32-fe5e-458c-a063-eb7140916c56;c2f3af0c-8843-468f-bd45-cd252347335e;2e60942c-23e6-45c6-b10f-d8902d6aaef2</t>
+  </si>
+  <si>
+    <t>4e1472b4-3784-45fb-a193-616a09eb37b2;220ae16d-b33c-4e74-9597-7803fcb68fe0;04472598-6574-429d-939c-ee59bcb032b8;c3b71bb4-5928-4523-beb4-f4496ba0aecd;e2475d8d-9a58-4097-b741-8eba7ff71999;b7bad773-7b15-4692-b934-c01eab1ab742;ac0d3594-44c6-4d39-88f3-a0084173db4c;142b8e6c-933f-4edc-8db6-4f66008f69e8;c6023b21-76e8-4001-93f7-dbef674c8211;fa522cce-0313-40b7-af7f-02faa64c8ec6;59dbec74-544e-439c-bd1a-f579a71c2b59;580d8f35-0b8b-4e6e-b57b-e9f280822d26;850d7e1d-1fe9-4fa2-8be3-de240713fc5a;940d79b6-4b0d-42fc-9e95-2fa3b9492791;eda2fcb4-471e-4347-942c-8a1bba2f1067;904f7da1-1c24-4706-9a1f-8dad105aad89;1d81da2d-76ff-4f70-9a2b-73464f4408ff;12d7cf04-007f-4757-a854-880465c4143a;fbed953a-f864-4b29-a70e-f49a97b9e01d;cb29baa9-caa3-43ab-a245-1c5f4f58737e;6e8c6fb8-8905-4353-a009-1f349b2379da;d754620b-031a-4de5-8d05-52a1eacbfc5a;11069062-09b8-4344-8d09-7460d94fe977;99a22078-090b-43c8-ab36-9f03b3a1b946</t>
+  </si>
+  <si>
+    <t>3d6e042b-6795-4fe5-ba0e-9d64d1232f3e;11381ae6-efe8-44d2-b37d-f5f4da4f529c;5b03814a-362c-4e20-9e53-3a80e163c51e;fd8b74dd-5e26-4772-a518-a1bc6cb6dba3;b527fc72-6882-44af-8deb-8c129ed25f77;b10b0fff-aa76-4c91-95b3-c4a4d8357af0;c3c5de4c-333d-4daf-be1f-44773141dff5;10ae5475-956c-4a21-b025-baf38485a43a;96f157d7-48d5-466e-b22d-bf600a8c4552;69e6cba5-23c0-4ed7-b802-90ff3786dcb9;d8745fd1-b115-45f7-952c-f98966778562;8f70a7ce-82fc-4d12-a9e8-2ac8bfb079ed;ee348a1e-0c7d-4bc7-8b7c-1060f9e109a3;dd9d6688-975f-4281-8aa7-e4412a9331ad;9244e8ee-7235-4c16-af21-c9cb424221c5;98cd1911-c1ac-49ce-aaf8-3f5eb1158b39;62ea8b5e-34a4-441b-acdd-07eb53a67797;8b01d9b5-2c78-489a-9a3a-4cc9e0e21832;7139858d-7f02-459f-95be-d858ab52cb8f;d6d6f892-ad0d-4006-92b2-9151858e361d;51d14893-28f1-493a-b4fc-da69c3c8d86e;38a95abc-1a6b-4dc9-a917-17a9dffbbf48;b8bf16a1-86f6-428e-b6bf-69c879a431ea</t>
+  </si>
+  <si>
+    <t>51ab6b2d-af08-47d4-8fdc-947779cfe917;f75fb1dc-7c84-4c1e-a874-43878cf36d00;67b15ed9-778a-4237-8a73-831f36854e90;a4332b38-8fdb-4055-b1e6-90e8830b9d42;f47328d5-171f-4ef7-a57f-b0582fa0c1cf;74d58b10-93cf-4eda-acac-4c189125d6ab;107ad595-18b1-4f02-b5f4-3cf4fa278cee;7103a11f-a4ef-4ce3-a07b-e80c460e18af;2a606b87-c49f-45b1-b68b-efd2feef2ee2;fcc3f570-a399-402a-a262-c2c7fb6133d8;e8bdca3a-1b3c-454c-9494-60792d9f5918;994d5765-ee15-4455-8d06-1836b8de3b76;fbbd20f3-5809-4ca7-89df-2960a29b4eca;c451fdf1-e2d8-4e6d-a43e-8b66b5360e22;c541741c-04e5-4101-940f-c4d10f5b5891;c8ed03fb-913d-40a5-a206-5c7fc250d820;34cfd1b1-28d9-4760-a5d1-484208d59434;c712035a-d40e-4d33-a9f8-a0ba2333b31f;d700f0dc-2f89-4414-a330-66311b4a98c2;195f12ee-b1ad-44ce-9640-6aada6060718;f71465ea-4478-40e3-aca4-2fbf78a6ef8c;f47ae0c4-c903-4abf-93d3-4da868bbc17c;842eaada-e785-4453-b367-a54fc1658f86;2d933fd9-2afd-4248-a4a8-34911f3fe86f</t>
+  </si>
+  <si>
+    <t>d0558bf3-44c9-4419-95f0-98fa898f5801;1ca927c2-a04c-4dd7-883a-9cfb1a66ff63;45ef74c8-5938-4904-a88e-ddee1b57fb35;b7947917-9df7-4cda-9d8c-f01e50bee326;92ff2fbf-1036-4767-973f-725c5c094cfb;81265987-9615-4f5d-9593-a450d540cbfe;d32a4467-cbbc-4f1c-bf5d-81505deb82f7;974137ac-82b0-4b36-93c0-89752b6ed1f4;6dd154e4-466a-4560-a84d-27393a3d2030;aa7f84b3-276e-4f2b-ba5c-adf59bec5462;09545b35-5a45-4423-ada0-3a3102c75862;dc27c4e6-b8f4-4aa1-8814-374865a51b77;76adc162-3b94-4001-a664-a43aa55bbe0e;b59a371e-ddb8-4b8b-a4df-a4992b4df89e;dfb74720-7df7-4a83-925d-cb8584fb9ebf;10655fb0-1073-42a3-acb3-f2828dfa3850;1b156a13-ee31-44be-a9b0-b1e247740ef4;e624d07a-9e4d-4bd6-bb45-2de6e90fbd50;fff42959-d8a7-4f5b-87d0-21f35d13bfae;ded5f3df-006f-45db-8394-91299cb2059f</t>
+  </si>
+  <si>
+    <t>46f199f2-a09e-419f-9ed9-eced11bcadf8;cf9f9fd1-b56f-47a3-86da-ccab2da09682;40edeeb8-7172-4a68-85d1-a5edce01ebae;aef06544-7a45-43ff-8259-6af716ff4d6e;c5ec1476-2107-46b0-99be-49771861ac4f;d7f4a7bc-ca05-4e86-8a1c-f9c860072238;e90b6030-9c13-466f-a32d-553f7eadacb1;1535257e-b375-469d-b9e7-eda82b37d165;956ae073-479f-49c4-8087-2d5de72627b6;0a7c3229-4484-4985-a157-519932ecb4ff;78af22b1-85f8-40f3-9acd-7946b2aaa7f8;68f5a1d6-12f7-4865-b34e-9d0190926abc;02984fc3-4049-4598-91f9-c4c1ef352334;2f3fcc7d-a46e-4821-a050-544abb5836b8;8fd1a4d5-02ae-4c25-bd97-6283b1c9f460;8e74e1bf-3669-413a-a315-9b83fc328da7;9c5f086d-b6e7-4eb6-a89e-a78fbebaaeec;cff04ae8-e574-418d-97d3-532ae0955d40;4996d4ec-6f56-4e12-84a2-7b5c34cb6e34;cf848386-8dd4-409b-b2d1-4d257c66097d;d5b4059c-af5e-4d96-b90f-0f4d37d76823</t>
+  </si>
+  <si>
+    <t>c06045dc-859e-4089-aeb4-01b17fec0d49;0bd1924f-bba8-412f-9d41-4a96d6878a50;76855698-a34a-44fd-acc0-4dca2c366f56;e967407c-3482-45e8-bce5-cdd9704dcb39;6b4e3040-92ff-43da-b02f-4444287f509e;fa239898-3c12-4369-92cb-98917d49dbc4;2fc01c69-8540-4213-999a-584507103b8e;067536e7-5c93-48f4-abb4-f61635319459;6698452c-61fd-4402-9271-1a5ad2c50036;537a8fdc-6978-4799-b5fe-ce4797c7aa44;09956333-a1a9-4cb8-8903-9dabba070e00;c7a16861-e0a9-4471-8387-2c344141bc0a;4640a082-b6ee-4b0a-b1ee-131fe657e3f3;b921c374-9cfd-493c-bf8c-af573fdd87ea;bda551dd-f87d-410b-9523-184a6757a11c;7c89240e-354c-4cb5-b1de-1a828def81d6;6bab9141-a791-4093-8fd4-6d1eb7e2d3ae;d450785d-4a75-4932-9fef-6c7943f2bb08;df736f10-59db-4acd-9ffc-410f5fc9afa2;c5a36cb0-72f0-41e7-b94c-1f532a456315</t>
+  </si>
+  <si>
+    <t>12eed9a8-f8aa-4ee9-a6c9-62a86c85c6ae;3372ebcc-8632-4ea3-b2b8-711533682caf;841128a0-ce09-4dcd-9011-115b2e41c184;659035b9-8a05-41f8-a54e-2188f42c4424;c7c2cf90-9281-4f3e-8c5f-ff7b18bc6d2e;9eb0a671-a270-44d9-90b8-7bb1e31d7e88;22e5b422-cef9-4d38-830a-725d2832ef36;0e750cee-a2d1-41eb-9fd9-a0e7fda1d0c8;782371bb-3ba2-4856-8c9d-25feff1e4583;08e36395-d870-42ab-bba8-6b1599e494b4;c25bdfa5-95f3-42dc-889d-3f04aae446ae;3270a523-0dea-4bba-ba40-850695bf5cd2;28468863-9348-49bc-a3a9-b118510162ef;0219c3a2-8209-4c36-9e71-ac7e920cfdb6;117999b5-b5da-4de9-b824-39d97bd1555d;a1d409f5-012f-400c-b767-f3a850653d5d;6560e7c4-2104-45a9-ada1-c625ab5f3881;e206e3f6-f494-482c-a9ea-514fa89d1a90;90c4c125-1858-40c1-b046-a05ac8ad0ecb;f362180d-7433-44b3-b825-e7db7318b761;b7dbf440-48d3-48e5-9fba-9f261bbcb5b8;0c2ff397-c366-4f11-a437-3b35e7fd3628</t>
+  </si>
+  <si>
+    <t>bab83507-0590-40dc-9d7d-3b10cb739d90;2a93eded-8c26-4fd1-9498-f8a3767e8474;9bcd4576-cc55-42bb-9c15-b2d84394f1e2;b6edeba9-77cd-42a5-875f-e21080b2f505;0bad8bff-13c8-458a-8cfa-ab57c358bd35;d61cbe0c-1c35-404b-b9ac-ee04b28e9d83;c69a1746-83a8-4b82-99e5-ce3a28055993;3e839c3c-68e7-4584-9613-5ec4c9298963;a4fd71ea-a1cf-4d52-a039-57e451acc676;3c64ebc5-f3d3-49e6-9bb5-a83194354208;d337a31c-df21-40bf-b9c4-c82d1b12af8b;77b88b02-8cbd-4a8d-aa12-5487517d1d00;30abec9c-cb9e-4dae-891d-b703a5c345c4;a231d7b6-1a29-4e45-b561-c44a67eb89dd;559195fe-485e-43d5-87ea-7edc42672e24;4d5d78a1-ea99-4481-96f0-fb4adfc91fb5;b49e87d9-0ce0-430d-b71f-62e98eb84176;2858e388-7726-4a0f-a534-b08158649dc1;29f82cee-f585-414c-81b9-60565a1ee4d9;416e2edd-1673-4862-97f5-c35bf896f273</t>
+  </si>
+  <si>
+    <t>b371f040-38c4-4e08-9272-171ad7eab782;69433a73-2bdb-4158-be87-e4a5d90af89a;8b53a851-95fb-4fb5-8bbd-bd4771dadc02;eb75e4a4-8454-429e-bb93-52aee819c0fe;27de3910-355b-4a87-b686-0f85781f2ab5;dd0d8b0e-82c9-4de7-9d36-2f054533790a;6226ee15-f4a9-4a50-9699-4cc7e43f4b06;3516add2-50d5-42da-8f59-9ffbfb78ecdf;370e1d8d-de82-48e6-8d01-3f311f02ba94;9e1b4747-baa0-4138-9197-682e54273776;3b698146-b6ec-4edb-956e-db6fe65a4646;f8967e43-046a-41b4-aaa9-ce268ce224bb;ce36c475-433f-4a22-b493-4c16079e77f2;396a4fa3-356e-4b28-a03a-9d09829b87a3;610eb104-fce9-4df3-bc67-64e7956bc921;8fa38fa7-5ca7-4556-baac-c49e01c17349;fa3eb1c5-d342-41be-b3f8-d4888baa1160;464ef361-77b3-4d9a-ab93-65f1bf719339;18a7fedf-2939-47ee-a0e0-6b945f501d0a;f69247a1-fe9d-4c94-8deb-e7eb2e425141;f8419444-84f7-4ae5-a8ae-c7c3562e10cf</t>
+  </si>
+  <si>
+    <t>4d9e1b84-904c-4ce9-b039-51e290aa2442;bfdd0578-eeee-4c3f-ad9d-be614c53d25c;84583a1c-cdbe-4908-8bc1-6acdfd186c40;d8254b35-ee89-4a36-b71a-b44c18fd201a;46dbdd65-1e17-4926-80fb-1ae5f5112427;6d542cc8-0105-4c2a-9b68-289c86768cfa;ac009daf-256d-4a0c-a81b-2f80e6fc61f9;64bbc055-ee55-46ca-9e76-7abe84c8e1d8;cf284774-074b-4589-9b63-100160662583;fb408b36-cb07-4a37-b980-e927a664d2c4;c6320e91-7b83-4492-8357-0a0264637cbb;ba498654-4789-4e97-a3ee-d33ffa8665de;9d018534-089e-4ee8-89c7-b5b1f037b24c;56e7c0cf-495a-4085-8092-ad5d0bcefa3a;253aac51-cffe-42f4-8f80-8abf56ee60b3;7566e43a-a319-4ff3-a827-a2f837abe273;30a379e8-e427-4ad5-9980-3159fb939cfe;67e94112-fadd-4336-a066-3666e0d9e7ef;1bc3991a-39fc-42b3-b410-8d44912d4af8;55323427-8a18-4fae-8f68-361a69026818</t>
+  </si>
+  <si>
+    <t>18c37b52-5b5b-40b0-a7bf-7c9f089eac77;b3523323-9fad-414b-a10c-4269e9ffc65e;74b057af-6ff1-41df-b31d-20219b7141f4;37ac650d-1045-4a15-9743-7957acc96040;2b955306-c255-43a9-a931-4cca99e1f771;d42d13c4-9dda-4be6-8838-6d5defdc4e5b;c74a0aa2-6fa0-4ea2-9454-b361ad4c5061;9c625540-a9f4-4bc7-b49d-7f113b7414a9;71af1080-3e5e-4b8b-be7f-f425b63030f2;6c19bbce-65e5-4f42-813e-f03121b7f64e;29f7834f-55f5-4284-9dc9-6f3eebbe68e3;2ff1e0e8-2ea5-43c4-b644-3c8d48317886;06208d7d-f6f9-48c5-8b2b-821e1d6b53a7;2ab503fa-2166-473d-9f7d-f4115db9b712;9c5c1d52-91b2-4dc0-89c5-29e3f4caf563;5367a911-5ade-4a81-a55f-3bd9ddf642b3;41041de5-e967-48b7-a110-e24c82d0eb97;2b6fb23e-ab4f-466d-b3b3-065ca3023d2f;a08119ba-7f7c-49d7-bf3e-0ecde9222657;f677028c-a367-4cc7-839f-c1db7f53ddf4;e2f12df5-77f2-4f11-bbdb-3cf79c9543e6</t>
+  </si>
+  <si>
+    <t>3fb4ab1a-dff1-4769-a479-a3896cf9cfee;008c2dc4-e7b5-4edf-bcb9-e48c549edd88;17b05a66-271e-4c67-88f9-8c369ee6f111;89a0dc54-61bd-42a5-ae57-a6ee751b9ce2;9bcccd0c-632e-4517-966a-55278a3dd59a;ec8e9d9e-f6d3-4a5c-a519-c80b74cc8b6a;9c1ece86-0a42-4595-b94a-0680ea772d9c;46abf64c-c32b-47ce-bd38-ec976739cf40;8405bd30-0a91-4bd1-802e-ba570b333821;4562e7e1-7511-4f49-ba6d-f76f5129de87;f2c9615e-0b3e-4c12-83ea-df0b907cc471;93b2f522-4273-42e7-8278-8a0d51e97420;1c8f12c4-8251-4f46-8fbe-ff2290b26f87;81754abb-c1ac-467d-93e3-cf9be9391fa1;125bc966-f7e5-46bc-9fda-0c7ba11d0267;a87f5bc9-bc2f-42a1-80e1-798c8a21b2fc;f06b4793-40a8-40b6-9ca7-043051baf19a;cc731e9a-3804-47cd-8100-552623f1e0fe;482c5535-db7c-442f-867d-09ef61ab62aa;d12fbc1f-6863-4c0b-8c98-a1411eb9923c;b3c4ab1b-4941-4fc4-b4a5-7d52739f57ff;aac27936-48e5-4130-8308-d1b5462e580c</t>
+  </si>
+  <si>
+    <t>5ee332a9-7030-461f-b027-d8da9b3309c8;0a41268f-0dea-4aab-8061-54c764f292a0;306e7ff5-e9d1-4ea8-a0d3-41c1bad88a61;4616769e-e224-434f-843d-d6c1995fda93;b7c96753-b59b-4faa-8175-17dc553f1b9e;42231d4c-a5dc-436c-b91d-474e24ae9826;6e772f21-1ee7-46ce-a647-762bec2cfd10;45050e69-3e51-46c9-86f2-495c83728c40;3cd7454b-5e7c-4ac0-83f2-7f5a06600d56;fcee2683-4e51-4ddb-99a2-04a2bc2fda2f;e8fdd231-9bc0-4abd-a571-a368a2f1f3c4;37b02f89-b20a-4061-9ea5-e4d2f852fff2;a6ee7bcc-b780-484b-9ca0-8851c9b3ce0d;7a976d74-85e6-4dd0-8eac-e17f840d6e8e;57900a65-97f1-4a24-82c0-f3194f13b284;85633247-a7c8-499a-a2aa-433095744f39;e45e9a7d-d3e6-444b-bc29-c4c15fbfe638;fddaf31b-f0a5-40b1-9cad-0ab66e197f8c;b1f30c76-d0d0-4b3c-8143-70b9d7ca6fcb</t>
+  </si>
+  <si>
+    <t>25c6d060-852c-488e-bd8f-3c5dba1754a5;4023aafe-c19b-443d-868e-0446de3947a5;071aa4ed-62a5-4591-bcd1-f8c63e48e437;5034b595-834a-4462-a42c-b99a9715a88c;68c027b8-2d74-4f13-a4e7-c2f7ab9bf5c7;85c34d1a-662c-4796-94a8-2e6c5fd138c7;1e309931-548c-4f70-b3d0-f10c4dff6d79;9af05da5-cbbe-4a90-bbe9-630582902ad9;b95e4def-8b6f-4954-8cd7-c7562e7a0460;40cd3f90-20f3-44c6-977a-e8afff02d7d8;699260d5-571d-4f0b-99cd-4204aacbaf51;b3857013-905b-46c7-bb00-af87e75c4dab;5518f690-e774-411e-bd12-55325dd956af;8b55f3b0-397e-4524-8aff-217fbaa7e4e0;a41131b1-971d-4454-995f-43f6b9691f94;d64a5190-f1f0-4864-9bd9-c1cef84fc52d;7c726b69-802e-441d-9f08-f5ac427f7d72;893b3718-d7e6-4454-90ad-db5ee242926c;6a743d50-45da-4e68-9b34-cd98d9b93224</t>
+  </si>
+  <si>
+    <t>8f9c28f9-cfb0-4ace-a77d-c18fd9bd32f4;4642a5d7-450f-4235-9564-af40fd83fdb7;eed93a66-da3a-43fa-b974-be4ce9a8cdc5;881ed5ba-a132-4792-bf85-78f9ac7771d5;f6f47988-2d99-4c27-ac74-ae285e3b9e34;dbf93c3a-cf44-417e-868d-aa48500405e9;27b3acae-936f-421a-a6f1-1837835a94af;42a15c9b-8dad-4adf-b1df-b5ef57f112e7;1c6facf7-a223-4b82-9133-94acdfd56ff5;dab3cf0e-050d-401a-895f-e3aa72ffe2c6;8e27799f-1b0c-458c-9966-7249a668afe6;c4a23da3-7dd0-4272-84dc-6c2357ecc61a;af11504b-bdd1-4c7e-ab07-9a3d0e5da508;a9b1ce9c-b0a2-4f77-9265-7c8001f88c8a;5192ea00-95d7-4f4d-bc04-9a8d73e0e06c;77425934-dd7a-4945-8bbb-f74370c4bcb9;99b10993-73fa-423c-8a9b-083485a91e43;fe895886-293c-4cbd-b30d-9a24679982a5;d99b1218-587d-4074-ae77-c5c18cb617c5;2134b153-81a0-4ce8-ae55-9fc456441250;53c83051-3fb6-4827-aa71-2e10ab92d57e</t>
+  </si>
+  <si>
+    <t>30f63ba5-8f7b-46e3-be2f-60e12bc0d3cf;438d1fc9-8f0c-4265-b3f0-f343962575b7;1eff4bb4-3ade-4a06-bf97-43a01ed510ae;8ea7191d-bc95-4b72-b1e6-9faf2cc73232;31a93dca-d5b6-45e7-bcfa-3c56ebf70ba8;27035b0d-1498-4803-a6ce-d80c2e7fae6f;9390230f-8721-4eb2-8ffa-fff016a5b8ed;385aa745-4713-4588-a786-76988ce54a0e;f3d9f38f-668b-423c-a2b8-f7d3f6064de5;26bbc0aa-58c0-4b1a-a545-a79c11375e25;c6c8c868-cbc6-4523-87bc-ebb677aa2264;97a362e6-4f3f-4e53-8cd7-ef82a7526c57;e6d4daeb-509e-4fa7-8e64-969b8457e090;cfd0e9f9-d75a-4370-bafe-521c0900a1e5;56c16ad7-4429-4e0c-a706-23706a675eb8;fbf5724c-b14b-4758-b064-2afe89aa9cd0;676267ad-e3fe-4e12-b832-342d60f4755b;914b5144-7e20-4cc0-8917-b0bd0e865424;434103b8-7111-49ea-86f0-98aa7d1712a7</t>
+  </si>
+  <si>
+    <t>3352d0d2-acb8-4bb1-829f-fc3a55170a48;8fe115a3-f6aa-4bff-8e7e-344c7d7bc2c4;e3c94fd8-948d-4eac-a0f6-71a80b627033;f53391c5-f9df-48e7-87b5-2f4ab8c686c1;d87ffa66-8394-4a18-b6dd-2d2653572413;2f3a00a0-e284-4e3a-8b6f-508914613c26;e68e5263-83b1-4a6b-9c29-c9d23b64f7a2;4ad1b06e-56cf-4581-b5f6-0141d8f654b2;095a9b22-e08f-459b-8f4b-10f1f0cc369f;120660ea-9944-42a1-8431-8f345d46ba47;683e5a18-a87f-4b08-b0c7-d62b6ef093f0;f278800d-82ca-4303-b050-073bb10a5566;e55a0e01-a12f-4f5c-8b91-248de425a8d2;eae8349d-a437-4b98-8989-331b1bd12429;e519248b-539c-490c-b724-813efe381e59;72897578-965d-46d3-8e69-e2952883951e;705c4478-a164-4469-b1d1-5a136ce4e89b;96483b8e-02ad-491a-ab22-c12b23da6fa5;b08d33c4-2eef-41ad-a8cf-e3fe99dad68b;b33714e4-62d0-4940-ac36-26eb0ef1d640;dc5e54db-27a7-4aec-b588-902e3776cbb7;9debf9f8-0d89-49de-84e6-ea03fcff5bad</t>
+  </si>
+  <si>
+    <t>a6733353-6d6c-442e-ab55-28ab0caa00e0;f2a731b5-8c11-4670-869b-669cfcb7e993;9d7d60b1-6306-4f59-95b1-ae7be92710bf;90ba2661-edd1-477b-ac91-6f14d9f06171;b1e6b4c9-b80f-4b6d-ab0f-28b9ec6bd619;803162bc-e516-48d5-89d8-9ab87c913bf9;d946ccd7-3832-4ca9-940f-dce62918d9bc;0bb8ba95-5d6a-474e-8b17-53e6e80474b8;91c7386b-1f2f-4e5e-880b-c0384723b070;00c13353-69af-4650-b4be-e54ef2db649d;7c4e5aeb-7dd1-408f-af75-0f25c6675e9d;9bd88c4f-5436-4313-84a4-e9af0e058d33;f9b5aefc-ae47-47cf-b429-89a9e6ee0f97;25eb6c1d-640a-4fe7-8910-0697fe2b87cd;82933efe-ce3b-4eae-8f23-a82b7dc28ebd;41ed3d77-5586-454f-a2ba-69ac72c79b26;06120258-dc23-4cdd-8773-e44dca19224e;9bc31f8a-e216-442d-845e-1ed97f76b8af;699be684-558b-497e-a82b-9a1e0014384f;cfefb3d5-35e8-4d98-be89-d163fe34dcad;0cfaad38-214f-44b1-b9f9-6a25549bb8b8</t>
+  </si>
+  <si>
+    <t>b96e2759-7ca5-4ca7-b72d-9690b662be56;2a4f49a8-bb38-4255-a640-85b3f8d5676d;7bb689ea-497e-4409-9d92-2294382548c3;67bd7490-9e61-4d57-9910-cd0be256beec;1861fbb1-9175-4d8b-acb1-834ada84ed35;ff701653-55aa-4d3a-834d-e7dd207a87d0;2afbbb16-bba5-495a-b5b2-f6233c615733;50569524-f123-4765-82b0-80758351e9da;963c41a6-4c9a-4e66-95d7-20ea4463bc67;4c52c9e8-bef7-456e-9db2-16fb560e817c;1132445d-f8ed-41ce-91c3-7d87248572ba;1980d461-7ce4-4d17-b476-76c017e40f0f;66ec6444-4a94-4370-8405-722c394b194e;e0252a37-daf6-4301-a407-136086684afc;697b094f-7860-45ce-a912-62ac9b92992c;3623a140-86f2-4ba7-a643-d9bf91ef293a;ef0ec79d-1cf2-4d7f-b9af-8aa020b2edb6;5cfd452d-0506-4507-a948-67d5c1ac8e15;cb05ad43-14e7-4d21-b58c-2ca33f308ea6;0008544d-1d63-4dc0-8c36-884ab97f2f9d</t>
+  </si>
+  <si>
+    <t>786bcf4e-c20c-4456-9968-e29e35a53f44;4e5fe41b-56c9-41d2-a80b-094f1411150c;1f9f5f06-4146-4909-911b-8dc99617d80a;96d4f90b-2c0f-40f4-985a-6ff782b86bc4;2ef6b85f-0eb2-41be-a37f-a394352de127;0bd59621-c990-4b61-8ee2-2029a3148da7;59e21e3f-7686-457d-8c99-af1c8ec2d3f6;bbaf951a-2ce6-423b-abdd-cf0982671fbb;d6306f45-0a5f-4b27-980e-48e52ad4b5a5;a9539b33-fcb9-4b3a-bfc7-db74c270bbfe;4538f14f-5450-47ff-81e1-458db0937dad;7754852c-a2f2-449f-a040-1a06412904c0;2e19d2cc-4edf-4025-a4ec-e25edc14c02e;4088dc66-d898-4e49-ada8-32223b1e836b;4f5a7e74-1ee7-4b3e-bad4-e8145d9922e4;7ad24ed2-1899-4ba8-a998-4f4fe4225e1c;2544892f-aa26-442a-851d-a6c2652d7810;d23f54cb-d52d-42e4-8b48-c2413138c535;bbde86d1-801c-458b-8118-44ada2043934;e629dd38-d723-4c01-970e-76ce9689a888</t>
+  </si>
+  <si>
+    <t>23740ec8-ef9d-40ce-96f7-00b84b1d845c;44527d25-a865-4960-93b6-33bc79a354fa;662308f9-d785-49d8-b662-189690a94c3d;a9ccc75c-e95e-4819-b59a-7fbad28d2f64;8fad98d8-b790-4ea9-8307-cd0560f05500;ed544440-331c-4df9-b9c1-980537d670c5;1225f974-fad5-4ad1-b1eb-0b179fc9478c;8558326a-2f99-40ba-b4da-2a0838ad7af6;6971db5e-31ac-4cab-8ad3-b32834059eba;26124e0f-993c-4723-98aa-aeedad94f6e7;bcd97545-d938-4f64-bad1-ff25b60bcc83;775f0cad-62d8-4663-9cb2-c51aa7c8b2a3;bab470e4-102d-43e6-8eeb-2248354be3a8;66a6716c-374f-4660-8830-10d8989554a0;264c2069-c2e0-4b75-98e9-b5321f4eed98;70c66e64-717c-479e-9145-87b28575d03f;bd44601c-4160-4f06-9517-dd9aa1a67b7c;b1c57f13-6b18-4b1c-87f6-19803d4d9681;f2e59778-8683-41d9-905c-99af33b2888d;a131ce6e-9671-495e-89b7-257fcfdc4db3;36b06700-4b3e-4ebe-ab84-77e8fba3b52c;99815205-ff35-404c-a65c-c933c27430ca;1bbd1e53-55cc-4833-972a-ef9e8caf2281</t>
+  </si>
+  <si>
+    <t>62172016-09c6-4799-ad42-5b8f7d3b845e;91f5e7bf-9e96-42b5-b98c-c2a2024a802f;a80eeef8-2374-4ed8-943e-139e0455c9c7;8e4c4aa5-4023-4ff2-bdfd-3d681684232c;6ec4fcdc-6e91-4630-8317-ecd2a39388fe;1c55a80d-41f0-49d3-8bc7-d7041a56b8b1;7c2f348d-d0c2-4e4a-99bc-f0af387d0e8f;bb83b295-8651-4a79-abb4-5894bcb6b7b8;bdca9ffa-dc63-4a93-b6e7-6456336fff9c;1999d684-52e9-4728-b6f2-554116882b54;374b6833-75fd-4462-8894-b777b1d608c1;4f34de07-4b95-4908-8884-1af3810b6abd;9878df82-5898-45e7-b0b1-94657d67fdf0;a5e86987-5ee2-4015-b3cb-2cc6c7fe3682;56d68a86-d718-49be-bbab-56257b95978c;3be6b803-336c-403c-8c01-821d943b5339;2614878d-17be-4b4b-b93f-deec97ec7f71;ebd7879d-736d-4fec-94e0-bd596adfdbd8;b7d56d3f-ffca-41b5-8b2f-df578b23ff6c;dfa30ab5-9f74-4df8-a6c0-ed3ce4467a70;11877f86-c310-4ffe-8a61-22131cbdef71;0dd122c3-2fac-4882-b0f5-7f91685131aa;e50204fb-2108-4134-a44e-210e41b298db</t>
+  </si>
+  <si>
+    <t>תרגול בהבנת הנקרא</t>
+  </si>
+  <si>
+    <t>תרגול בחשבון</t>
+  </si>
+  <si>
+    <t>groupCategoryType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,17 +242,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,9 +262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +302,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -219,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -251,20 +406,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -386,64 +537,1084 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="65.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>720</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>600</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>720</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>720</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>780</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>780</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>780</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>780</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>720</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>780</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>720</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>780</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>720</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>720</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>780</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>720</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>720</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>780</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>780</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>720</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>720</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>900</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>930</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1095</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>1140</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>1095</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>1050</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1050</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1095</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>1140</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1125</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>1125</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>945</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>990</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>900</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>960</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>915</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>960</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>915</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>930</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>945</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>840</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>855</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>990</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>870</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>975</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>960</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>945</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>915</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>1050</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>1095</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/lessons_import_template.xlsx
+++ b/public/lessons_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raph\projects\gifted-v3\smarti-web\smarti-web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3A86A-8E53-4BC5-8C77-5B0AA8C55969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8BB5A-50CB-43BE-A4CD-1A0122D15688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-150" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>questionIds</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>groupCategoryType</t>
+  </si>
+  <si>
+    <t>systemStep</t>
   </si>
 </sst>
 </file>
@@ -583,15 +586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +613,11 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -631,7 +637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -651,7 +657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -671,7 +677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -691,7 +697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -711,7 +717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -731,7 +737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -751,7 +757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -771,7 +777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -791,7 +797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -811,7 +817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -831,7 +837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -851,7 +857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -871,7 +877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -891,7 +897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
